--- a/Semestre 3/Derivados Financieros/S2.xlsx
+++ b/Semestre 3/Derivados Financieros/S2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 3\Derivados Financieros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF4004-1184-427E-B4B4-92CA8929A798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DC9A8B-4BF9-4D46-AF3D-D2C87AE4C8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0731B205-C92E-4420-8ACF-481E76A02D29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0731B205-C92E-4420-8ACF-481E76A02D29}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="18" r:id="rId1"/>
-    <sheet name="S2" sheetId="17" r:id="rId2"/>
-    <sheet name="S3" sheetId="36" r:id="rId3"/>
-    <sheet name="S4" sheetId="21" r:id="rId4"/>
-    <sheet name="T2" sheetId="12" r:id="rId5"/>
+    <sheet name="S1 (2)" sheetId="37" r:id="rId2"/>
+    <sheet name="S2" sheetId="17" r:id="rId3"/>
+    <sheet name="S3" sheetId="36" r:id="rId4"/>
+    <sheet name="S4" sheetId="21" r:id="rId5"/>
+    <sheet name="T2" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -137,6 +138,101 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={8E2CC21C-1013-43C9-9F1D-64A4F31DC46A}</author>
+    <author>NICOLÁS GONZÁLEZ</author>
+  </authors>
+  <commentList>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{8E2CC21C-1013-43C9-9F1D-64A4F31DC46A}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Entre mayor sea la frecuencia de pago mayor riesgo de refinanciación.
+Respuesta:
+    Si yo tomo mi deuda al IBR 12 meses es como hacer una cobertura.
+Respuesta:
+    En promedio el mercado cree que a 1 año el mercado va a estar a 10%</t>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="1" shapeId="0" xr:uid="{22ED705F-76D5-41FA-A8DC-3A29C9EE465B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En todos los swaps siempre hay 2 patas, una fija y otra variable. La fija es la que pacto en el swap y la variable depende del mercado. Yo decidí que a los 6 meses voy a dejar mis flujos fijos al 8, encontré que hay unas proyecciones que dicen que a los 6 meses las tasas van a estar al 10%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{0C485198-6022-47D8-ADD8-549CCA0817F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Yo quiero recibir este</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L43" authorId="1" shapeId="0" xr:uid="{466E17B4-70FB-4500-885C-275D83F59340}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pagar este</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>NICOLÁS GONZÁLEZ</author>
   </authors>
   <commentList>
@@ -217,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="177">
   <si>
     <t>Especulación</t>
   </si>
@@ -731,6 +827,24 @@
   <si>
     <t>Intereses</t>
   </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>6.00%</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
+    <t>6.50%</t>
+  </si>
+  <si>
+    <t>6.75%</t>
+  </si>
+  <si>
+    <t>7.00%</t>
+  </si>
 </sst>
 </file>
 
@@ -743,7 +857,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +961,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1304,6 +1424,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,13 +1475,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1355,19 +1484,10 @@
     <xf numFmtId="3" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2529,6 +2649,1131 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A508-4CAF-ABFC-CF02A8B5C5B3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A508-4CAF-ABFC-CF02A8B5C5B3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A508-4CAF-ABFC-CF02A8B5C5B3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S1 (2)'!$B$26:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hoy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 (2)'!$C$26:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A508-4CAF-ABFC-CF02A8B5C5B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="459792240"/>
+        <c:axId val="459793072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="459792240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459793072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459793072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="459792240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S1 (2)'!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IBR EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S1 (2)'!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hoy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 (2)'!$E$42:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7055-4C5F-AE1E-2EB02734CB2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S1 (2)'!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Path</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S1 (2)'!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hoy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 (2)'!$F$42:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5005896226414839E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0017660899654111E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5035266403648881E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0058685284775555E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000062E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7055-4C5F-AE1E-2EB02734CB2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="556860000"/>
+        <c:axId val="556857088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="556860000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556857088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556857088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="556860000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'S1 (2)'!$C$6:$G$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ON Medio</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>IBR 1M</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>IBR 3M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>IBR 6M</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IBR 12M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Diario</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Mensual</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Trimestral</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Semestral</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Anual</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 (2)'!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4583333333333335E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B4D-492D-9F9F-AD4502FAAEFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1483412751"/>
+        <c:axId val="1483404591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1483412751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483404591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1483404591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483412751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2936,6 +4181,126 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4987,6 +6352,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5104,6 +7978,125 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9F1CF5-1BAE-4DE3-BB5E-603D45E5BE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4752743F-1B2C-46AF-8A5F-9EA53AA9CD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B8F653-D99A-4AEB-B85A-C6F99A1F0672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>169208</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -5143,7 +8136,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5507,12 +8500,26 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G8" dT="2023-07-22T01:03:15.08" personId="{7B171268-5B9E-4701-9B61-FFE261052ABD}" id="{8E2CC21C-1013-43C9-9F1D-64A4F31DC46A}">
+    <text>Entre mayor sea la frecuencia de pago mayor riesgo de refinanciación.</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2023-07-22T01:03:40.19" personId="{7B171268-5B9E-4701-9B61-FFE261052ABD}" id="{49F28AD4-7DE2-4401-B83A-FCE91AEDA26F}" parentId="{8E2CC21C-1013-43C9-9F1D-64A4F31DC46A}">
+    <text>Si yo tomo mi deuda al IBR 12 meses es como hacer una cobertura.</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2023-07-22T01:04:58.91" personId="{7B171268-5B9E-4701-9B61-FFE261052ABD}" id="{ABD3381E-CA61-4C96-9228-E44334AC2DEC}" parentId="{8E2CC21C-1013-43C9-9F1D-64A4F31DC46A}">
+    <text>En promedio el mercado cree que a 1 año el mercado va a estar a 10%</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA2A15-AB0F-497B-ABD5-08F2D334FE8C}">
   <dimension ref="B2:P59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5904,22 +8911,22 @@
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
     </row>
     <row r="41" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
@@ -6251,10 +9258,785 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6216EE3-50AC-4AB0-988C-17376359FAEB}">
+  <dimension ref="B2:T64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="3"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>AVERAGE(C8:C10)</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f>AVERAGE(C8:C13)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>AVERAGE(C8:C19)</f>
+        <v>7.4583333333333335E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D19" si="0">C9</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <f>AVERAGE(C11:C13)</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <f>AVERAGE(C14:C16)</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <f>AVERAGE(C14:C19)</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E17" s="5">
+        <f>AVERAGE(C17:C19)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="77">
+        <f>AVERAGE(C8:C19)</f>
+        <v>7.4583333333333335E-2</v>
+      </c>
+      <c r="D20" s="77">
+        <f t="shared" ref="D20:G20" si="1">AVERAGE(D8:D19)</f>
+        <v>7.6666666666666661E-2</v>
+      </c>
+      <c r="E20" s="77">
+        <f t="shared" si="1"/>
+        <v>7.4583333333333335E-2</v>
+      </c>
+      <c r="F20" s="77">
+        <f t="shared" si="1"/>
+        <v>7.4583333333333335E-2</v>
+      </c>
+      <c r="G20" s="77">
+        <f t="shared" si="1"/>
+        <v>7.4583333333333335E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="13">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="13">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+    </row>
+    <row r="41" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13">
+        <f>C43/360</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G43" s="7">
+        <f>F43-$F$42</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="7">
+        <f>G43/H43</f>
+        <v>0.99999999999999944</v>
+      </c>
+      <c r="J43" s="7">
+        <f>$E$42</f>
+        <v>0.05</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <f>$E$48</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" ref="D44:D48" si="2">C44/360</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E44" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F44" s="26">
+        <f>(((1+E44)^D44)/((1+E43)^D43))^(1/(D44-D43))-1</f>
+        <v>6.5005896226414839E-2</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" ref="G44:G48" si="3">F44-$F$42</f>
+        <v>1.5005896226414836E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" ref="J44:J48" si="4">$E$42</f>
+        <v>0.05</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
+        <f t="shared" ref="L44:L48" si="5">$E$48</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1">
+        <v>90</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F45" s="26">
+        <f t="shared" ref="F45:F48" si="6">(((1+E45)^D45)/((1+E44)^D44))^(1/(D45-D44))-1</f>
+        <v>7.0017660899654111E-2</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0017660899654108E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O45" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="1">
+        <v>120</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E46" s="7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="6"/>
+        <v>7.5035266403648881E-2</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5035266403648879E-2</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="37"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1">
+        <v>150</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E47" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="6"/>
+        <v>8.0058685284775555E-2</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="3"/>
+        <v>3.0058685284775552E-2</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="37"/>
+    </row>
+    <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1">
+        <v>180</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F48" s="26">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000059E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="I48" s="7">
+        <f>G48/H48</f>
+        <v>-1.0000000000000029</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O48" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" s="39" t="e">
+        <f>AVERAGE(P45:P47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="D49" s="13"/>
+      <c r="G49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="E50" s="7"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="N56" s="103"/>
+      <c r="O56" s="103"/>
+      <c r="P56" s="103"/>
+      <c r="Q56" s="103"/>
+      <c r="R56" s="103"/>
+      <c r="S56" s="103"/>
+      <c r="T56" s="103"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="N58" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="N59" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="N60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="N61" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="N62" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="N63" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="N64" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="N40:P40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC71D9D0-3670-4047-9963-6EA3E1A952EE}">
   <dimension ref="B2:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -6383,25 +10165,25 @@
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="H23" s="83" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="H23" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="N23" s="83" t="s">
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="N23" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
     </row>
     <row r="24" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
@@ -6545,13 +10327,13 @@
         <f t="shared" ref="L27:L29" si="2">(K27+3%)*J27</f>
         <v>65000</v>
       </c>
-      <c r="N27" s="83" t="s">
+      <c r="N27" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="17">
@@ -7122,28 +10904,28 @@
       <c r="R56" s="9"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="83" t="s">
+      <c r="H57" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="83" t="s">
+      <c r="O57" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="83"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
@@ -7306,13 +11088,13 @@
         <v>-3465.8623894057164</v>
       </c>
       <c r="N61" s="18"/>
-      <c r="O61" s="83" t="s">
+      <c r="O61" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="17">
@@ -7513,11 +11295,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB8A6AE-BCE1-45FE-8E2B-C39F601BC98A}">
   <dimension ref="A2:P58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -7539,23 +11321,23 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42"/>
@@ -7595,7 +11377,7 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -7630,13 +11412,13 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="24">
         <f ca="1">TODAY()</f>
-        <v>45129</v>
+        <v>45143</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
@@ -7652,13 +11434,13 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="1">
         <v>360</v>
       </c>
       <c r="C11" s="24">
         <f ca="1">EDATE(C10,12)</f>
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
@@ -7691,13 +11473,13 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="1">
         <v>720</v>
       </c>
       <c r="C12" s="24">
         <f t="shared" ref="C12:C13" ca="1" si="0">EDATE(C11,12)</f>
-        <v>45860</v>
+        <v>45874</v>
       </c>
       <c r="D12" s="1">
         <v>100</v>
@@ -7730,13 +11512,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="1">
         <v>1080</v>
       </c>
       <c r="C13" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>46225</v>
+        <v>46239</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
@@ -7801,7 +11583,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="90" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -7839,13 +11621,13 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="24">
         <f ca="1">TODAY()</f>
-        <v>45129</v>
+        <v>45143</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
@@ -7862,13 +11644,13 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="1">
         <v>360</v>
       </c>
       <c r="C19" s="24">
         <f ca="1">EDATE(C18,12)</f>
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="D19" s="1">
         <v>100</v>
@@ -7904,13 +11686,13 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="1">
         <v>720</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" ref="C20:C21" ca="1" si="5">EDATE(C19,12)</f>
-        <v>45860</v>
+        <v>45874</v>
       </c>
       <c r="D20" s="1">
         <v>100</v>
@@ -7947,13 +11729,13 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="1">
         <v>1080</v>
       </c>
       <c r="C21" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>46225</v>
+        <v>46239</v>
       </c>
       <c r="D21" s="1">
         <v>100</v>
@@ -8070,23 +11852,23 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
@@ -8105,17 +11887,17 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
@@ -8134,7 +11916,7 @@
       </c>
       <c r="C37" s="46">
         <f ca="1">TODAY()</f>
-        <v>45129</v>
+        <v>45143</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="47" t="s">
@@ -8162,12 +11944,12 @@
       </c>
       <c r="C38" s="46">
         <f ca="1">EDATE(C37,60)</f>
-        <v>46956</v>
+        <v>46970</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="46">
         <f ca="1">C37</f>
-        <v>45129</v>
+        <v>45143</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -8188,7 +11970,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="46">
         <f ca="1">EDATE(E38,12)</f>
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="F39" s="1">
         <v>360</v>
@@ -8220,7 +12002,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="46">
         <f t="shared" ref="E40:E43" ca="1" si="9">EDATE(E39,12)</f>
-        <v>45860</v>
+        <v>45874</v>
       </c>
       <c r="F40" s="1">
         <v>360</v>
@@ -8252,7 +12034,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="46">
         <f t="shared" ca="1" si="9"/>
-        <v>46225</v>
+        <v>46239</v>
       </c>
       <c r="F41" s="1">
         <v>360</v>
@@ -8284,7 +12066,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="46">
         <f t="shared" ca="1" si="9"/>
-        <v>46590</v>
+        <v>46604</v>
       </c>
       <c r="F42" s="1">
         <v>360</v>
@@ -8316,7 +12098,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="46">
         <f t="shared" ca="1" si="9"/>
-        <v>46956</v>
+        <v>46970</v>
       </c>
       <c r="F43" s="1">
         <v>360</v>
@@ -8382,17 +12164,17 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
@@ -8411,7 +12193,7 @@
       </c>
       <c r="C49" s="46">
         <f ca="1">TODAY()</f>
-        <v>45129</v>
+        <v>45143</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="47" t="s">
@@ -8439,12 +12221,12 @@
       </c>
       <c r="C50" s="46">
         <f ca="1">EDATE(C49,60)</f>
-        <v>46956</v>
+        <v>46970</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="46">
         <f ca="1">C49</f>
-        <v>45129</v>
+        <v>45143</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -8465,7 +12247,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="46">
         <f ca="1">EDATE(E50,12)</f>
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="F51" s="1">
         <v>360</v>
@@ -8497,7 +12279,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="46">
         <f t="shared" ref="E52:E55" ca="1" si="14">EDATE(E51,12)</f>
-        <v>45860</v>
+        <v>45874</v>
       </c>
       <c r="F52" s="1">
         <v>360</v>
@@ -8529,7 +12311,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="46">
         <f t="shared" ca="1" si="14"/>
-        <v>46225</v>
+        <v>46239</v>
       </c>
       <c r="F53" s="1">
         <v>360</v>
@@ -8561,7 +12343,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="46">
         <f t="shared" ca="1" si="14"/>
-        <v>46590</v>
+        <v>46604</v>
       </c>
       <c r="F54" s="1">
         <v>360</v>
@@ -8593,7 +12375,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="46">
         <f t="shared" ca="1" si="14"/>
-        <v>46956</v>
+        <v>46970</v>
       </c>
       <c r="F55" s="1">
         <v>360</v>
@@ -8638,10 +12420,10 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="84"/>
+      <c r="I57" s="89"/>
       <c r="J57" s="51">
         <f ca="1">XIRR(J50:J55,E50:E55)</f>
         <v>0.14183112978935239</v>
@@ -8673,14 +12455,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4FF9B1-ED33-438B-92DB-866A4C8836A2}">
   <dimension ref="B2:XFD40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="11280" topLeftCell="AZ1" activePane="topRight"/>
-      <selection activeCell="G21" sqref="G21"/>
-      <selection pane="topRight" activeCell="BD10" sqref="BD10"/>
+    <sheetView showGridLines="0" topLeftCell="AH1" workbookViewId="0">
+      <pane xSplit="11280" topLeftCell="AX1" activePane="topRight"/>
+      <selection activeCell="AM17" sqref="AM15:AO17"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8714,94 +12496,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16384" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="L2" s="89" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="L2" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="T2" s="88" t="s">
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="T2" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AB2" s="90" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AB2" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AJ2" s="91" t="s">
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AJ2" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AR2" s="91" t="s">
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AR2" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AZ2" s="92" t="s">
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AZ2" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="92"/>
-      <c r="BF2" s="92"/>
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="97"/>
+      <c r="BF2" s="97"/>
     </row>
     <row r="3" spans="2:16384" x14ac:dyDescent="0.3">
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="92"/>
-      <c r="BD3" s="92"/>
-      <c r="BE3" s="92"/>
-      <c r="BF3" s="92"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AZ3" s="97"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
+      <c r="BC3" s="97"/>
+      <c r="BD3" s="97"/>
+      <c r="BE3" s="97"/>
+      <c r="BF3" s="97"/>
     </row>
     <row r="4" spans="2:16384" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
@@ -8809,7 +12591,7 @@
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="N4" s="4"/>
@@ -8817,15 +12599,15 @@
       <c r="T4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="99" t="s">
+      <c r="V4" s="101"/>
+      <c r="W4" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
       <c r="AB4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8836,13 +12618,13 @@
       <c r="AJ4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="84" t="s">
         <v>125</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS4" s="101" t="s">
+      <c r="AS4" s="84" t="s">
         <v>125</v>
       </c>
       <c r="AZ4" s="1" t="s">
@@ -8857,7 +12639,7 @@
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="94" t="s">
+      <c r="M5" s="82" t="s">
         <v>162</v>
       </c>
       <c r="N5" s="3"/>
@@ -8868,16 +12650,16 @@
       <c r="U5" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="W5" s="97" t="s">
+      <c r="W5" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
       <c r="AB5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AC5" s="53"/>
-      <c r="AD5" s="102" t="s">
+      <c r="AD5" s="85" t="s">
         <v>127</v>
       </c>
       <c r="AJ5" s="1" t="s">
@@ -8904,22 +12686,22 @@
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
       <c r="T6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="96" t="s">
+      <c r="W6" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
       <c r="AB6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +12724,7 @@
       <c r="AZ6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BA6" s="101" t="s">
+      <c r="BA6" s="84" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8951,10 +12733,10 @@
       <c r="L7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="95"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="2:16384" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -9052,8 +12834,8 @@
       </c>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="60"/>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="82"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
     </row>
     <row r="10" spans="2:16384" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
@@ -9081,7 +12863,7 @@
       <c r="AM10" s="18"/>
       <c r="AN10" s="18"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="103">
+      <c r="AS10" s="86">
         <v>0</v>
       </c>
       <c r="AT10" s="18"/>
@@ -9103,7 +12885,7 @@
         <f>(1+8%)^AD11</f>
         <v>1.08</v>
       </c>
-      <c r="AF11" s="100">
+      <c r="AF11" s="83">
         <f>AE11*$AB$10</f>
         <v>5184</v>
       </c>
@@ -9133,7 +12915,7 @@
         <v>191999.65842398017</v>
       </c>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="103">
+      <c r="AS11" s="86">
         <v>1</v>
       </c>
       <c r="AT11" s="78">
@@ -25501,7 +29283,7 @@
         <f t="shared" ref="AE12:AE20" si="2">(1+8%)^AD12</f>
         <v>1.1664000000000001</v>
       </c>
-      <c r="AF12" s="100">
+      <c r="AF12" s="83">
         <f t="shared" ref="AF12:AF20" si="3">AE12*$AB$10</f>
         <v>5598.72</v>
       </c>
@@ -25510,7 +29292,7 @@
         <v>167961.60000000001</v>
       </c>
       <c r="AH12" s="18">
-        <f t="shared" ref="AH12:AH20" si="5">AG12</f>
+        <f t="shared" ref="AH12:AH19" si="5">AG12</f>
         <v>167961.60000000001</v>
       </c>
       <c r="AK12" s="1">
@@ -25530,7 +29312,7 @@
         <v>179558.05842398017</v>
       </c>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="103">
+      <c r="AS12" s="86">
         <v>2</v>
       </c>
       <c r="AT12" s="78">
@@ -25560,7 +29342,7 @@
         <f t="shared" si="2"/>
         <v>1.2597120000000002</v>
       </c>
-      <c r="AF13" s="100">
+      <c r="AF13" s="83">
         <f t="shared" si="3"/>
         <v>6046.6176000000005</v>
       </c>
@@ -25588,7 +29370,7 @@
         <f t="shared" si="7"/>
         <v>166121.13042398015</v>
       </c>
-      <c r="AS13" s="103">
+      <c r="AS13" s="86">
         <v>3</v>
       </c>
       <c r="AT13" s="78">
@@ -25611,7 +29393,7 @@
         <f t="shared" si="2"/>
         <v>1.3604889600000003</v>
       </c>
-      <c r="AF14" s="100">
+      <c r="AF14" s="83">
         <f t="shared" si="3"/>
         <v>6530.3470080000016</v>
       </c>
@@ -25640,7 +29422,7 @@
         <v>151609.24818398012</v>
       </c>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="103">
+      <c r="AS14" s="86">
         <v>4</v>
       </c>
       <c r="AT14" s="78">
@@ -25668,7 +29450,7 @@
         <f t="shared" si="2"/>
         <v>1.4693280768000003</v>
       </c>
-      <c r="AF15" s="100">
+      <c r="AF15" s="83">
         <f t="shared" si="3"/>
         <v>7052.7747686400016</v>
       </c>
@@ -25697,7 +29479,7 @@
         <v>135936.41536478011</v>
       </c>
       <c r="AR15" s="3"/>
-      <c r="AS15" s="103">
+      <c r="AS15" s="86">
         <v>5</v>
       </c>
       <c r="AT15" s="78">
@@ -25725,7 +29507,7 @@
         <f t="shared" si="2"/>
         <v>1.5868743229440005</v>
       </c>
-      <c r="AF16" s="100">
+      <c r="AF16" s="83">
         <f t="shared" si="3"/>
         <v>7616.996750131203</v>
       </c>
@@ -25753,7 +29535,7 @@
         <f t="shared" si="7"/>
         <v>119009.75592004409</v>
       </c>
-      <c r="AS16" s="103">
+      <c r="AS16" s="86">
         <v>6</v>
       </c>
       <c r="AT16" s="78">
@@ -25775,7 +29557,7 @@
         <f t="shared" si="2"/>
         <v>1.7138242687795207</v>
       </c>
-      <c r="AF17" s="100">
+      <c r="AF17" s="83">
         <f t="shared" si="3"/>
         <v>8226.3564901416994</v>
       </c>
@@ -25803,7 +29585,7 @@
         <f t="shared" si="7"/>
         <v>100728.96371972919</v>
       </c>
-      <c r="AS17" s="103">
+      <c r="AS17" s="86">
         <v>7</v>
       </c>
       <c r="AT17" s="78">
@@ -25826,7 +29608,7 @@
         <f t="shared" si="2"/>
         <v>1.8509302102818823</v>
       </c>
-      <c r="AF18" s="100">
+      <c r="AF18" s="83">
         <f t="shared" si="3"/>
         <v>8884.4650093530345</v>
       </c>
@@ -25854,7 +29636,7 @@
         <f t="shared" si="7"/>
         <v>80985.708143389144</v>
       </c>
-      <c r="AS18" s="103">
+      <c r="AS18" s="86">
         <v>8</v>
       </c>
       <c r="AT18" s="78">
@@ -25876,7 +29658,7 @@
         <f t="shared" si="2"/>
         <v>1.9990046271044331</v>
       </c>
-      <c r="AF19" s="100">
+      <c r="AF19" s="83">
         <f t="shared" si="3"/>
         <v>9595.2222101012794</v>
       </c>
@@ -25904,7 +29686,7 @@
         <f t="shared" si="7"/>
         <v>59662.99212094181</v>
       </c>
-      <c r="AS19" s="103">
+      <c r="AS19" s="86">
         <v>9</v>
       </c>
       <c r="AT19" s="78">
@@ -25928,7 +29710,7 @@
         <f t="shared" si="2"/>
         <v>2.1589249972727877</v>
       </c>
-      <c r="AF20" s="100">
+      <c r="AF20" s="83">
         <f t="shared" si="3"/>
         <v>10362.839986909381</v>
       </c>
@@ -25956,7 +29738,7 @@
         <f t="shared" si="7"/>
         <v>-2744776.5346379909</v>
       </c>
-      <c r="AS20" s="103">
+      <c r="AS20" s="86">
         <v>10</v>
       </c>
       <c r="AT20" s="78">
@@ -26067,7 +29849,7 @@
         <v>144000</v>
       </c>
       <c r="AH27" s="18">
-        <f t="shared" ref="AH27:AH35" si="12">AF27+AG27</f>
+        <f t="shared" ref="AH27:AH34" si="12">AF27+AG27</f>
         <v>347519.65842398017</v>
       </c>
     </row>
@@ -26326,11 +30108,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BB6B1-B43F-49DC-A627-50CAC46F8B1A}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
